--- a/output/phq9_9th_logistic.xlsx
+++ b/output/phq9_9th_logistic.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t xml:space="preserve">Characteristic
 </t>
@@ -42,30 +42,30 @@
     <t xml:space="preserve">     Chinese</t>
   </si>
   <si>
+    <t xml:space="preserve">Marital status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     married</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     divorced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     widow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Bangkok</t>
+  </si>
+  <si>
     <t xml:space="preserve">     others</t>
   </si>
   <si>
-    <t xml:space="preserve">Marital status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     married</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     divorced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     widow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Bangkok</t>
-  </si>
-  <si>
     <t xml:space="preserve">Education</t>
   </si>
   <si>
@@ -135,10 +135,7 @@
     <t xml:space="preserve">     Gait aid</t>
   </si>
   <si>
-    <t xml:space="preserve">Hearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Hearing aid</t>
+    <t xml:space="preserve">PatientHearing</t>
   </si>
   <si>
     <t xml:space="preserve">     Hearing impairment</t>
@@ -316,37 +313,28 @@
     <t xml:space="preserve">—</t>
   </si>
   <si>
-    <t xml:space="preserve">1,658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38,167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16,493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92,175,450,458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18,055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,282,397,728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,271,495,704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,518,524,356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,758,986,551</t>
+    <t xml:space="preserve">1,799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26,576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27,248,077,070,170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38,640,689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131,872,972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53,810,137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35,132,027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86,496,367</t>
   </si>
   <si>
     <t xml:space="preserve">95% CI
@@ -811,13 +799,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
@@ -825,13 +813,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
@@ -839,13 +827,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -853,13 +841,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -870,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -881,13 +869,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" ht="NA" customHeight="1">
@@ -895,13 +883,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" ht="NA" customHeight="1">
@@ -909,13 +897,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" ht="NA" customHeight="1">
@@ -923,27 +911,27 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" ht="NA" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="n">
-        <v>0</v>
+      <c r="B10" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
@@ -957,63 +945,63 @@
         <v>98</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>99</v>
+      <c r="B12" s="8" t="n">
+        <v>0.01</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" ht="NA" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="n">
-        <v>0.01</v>
+      <c r="B13" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>100</v>
+      <c r="B14" s="8" t="n">
+        <v>0.05</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="n">
-        <v>0.09</v>
+      <c r="B15" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" ht="NA" customHeight="1">
@@ -1027,40 +1015,40 @@
         <v>98</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" ht="NA" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>99</v>
+      <c r="B17" s="8" t="n">
+        <v>0.9</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" ht="NA" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="8" t="n">
-        <v>1.36</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" ht="NA" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>98</v>
@@ -1069,68 +1057,68 @@
         <v>98</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" ht="NA" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>99</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="n">
+        <v>24.6</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" ht="NA" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>101</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="n">
+        <v>0.01</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" ht="NA" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="8" t="n">
-        <v>1.41</v>
+        <v>19.8</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" ht="NA" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" ht="NA" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>98</v>
@@ -1139,68 +1127,68 @@
         <v>98</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" ht="NA" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>99</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" ht="NA" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="8" t="n">
-        <v>0.03</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" ht="NA" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>103</v>
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="n">
+        <v>4.22</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" ht="NA" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="8" t="n">
-        <v>5.25</v>
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" ht="NA" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>98</v>
@@ -1209,82 +1197,82 @@
         <v>98</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" ht="NA" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>99</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="n">
+        <v>0.27</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" ht="NA" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="8" t="n">
-        <v>0.05</v>
+        <v>212</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" ht="NA" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="8" t="n">
-        <v>53.7</v>
+        <v>0.3</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" ht="NA" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="8" t="n">
-        <v>0.02</v>
+        <v>0.36</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" ht="NA" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="8" t="n">
-        <v>0.11</v>
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" ht="NA" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>98</v>
@@ -1293,54 +1281,54 @@
         <v>98</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" ht="NA" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>99</v>
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="n">
+        <v>0.13</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" ht="NA" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="8" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" ht="NA" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="8" t="n">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" ht="NA" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>98</v>
@@ -1349,40 +1337,40 @@
         <v>98</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" ht="NA" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>99</v>
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="n">
+        <v>0.25</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" ht="NA" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="8" t="n">
-        <v>1.21</v>
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" ht="NA" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>98</v>
@@ -1391,964 +1379,936 @@
         <v>98</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" ht="NA" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>99</v>
+        <v>41</v>
+      </c>
+      <c r="B43" s="8" t="n">
+        <v>3.06</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" ht="NA" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="8" t="n">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" ht="NA" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="8" t="n">
-        <v>0.07</v>
+        <v>38</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" ht="NA" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>98</v>
+      <c r="B46" s="8" t="n">
+        <v>2.4</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" ht="NA" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" ht="NA" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="8" t="n">
-        <v>4.44</v>
+        <v>45</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" ht="NA" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>98</v>
+        <v>46</v>
+      </c>
+      <c r="B49" s="8" t="n">
+        <v>419</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" ht="NA" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>99</v>
+        <v>47</v>
+      </c>
+      <c r="B50" s="8" t="n">
+        <v>0.24</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" ht="NA" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" ht="NA" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="8" t="n">
-        <v>0.34</v>
+        <v>49</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" ht="NA" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>98</v>
+        <v>50</v>
+      </c>
+      <c r="B53" s="8" t="n">
+        <v>47</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" ht="NA" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" ht="NA" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="8" t="n">
-        <v>46.2</v>
+        <v>52</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" ht="NA" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" ht="NA" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>98</v>
+        <v>54</v>
+      </c>
+      <c r="B57" s="8" t="n">
+        <v>0.08</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" ht="NA" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>99</v>
+        <v>55</v>
+      </c>
+      <c r="B58" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" ht="NA" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="8" t="n">
-        <v>0.06</v>
+        <v>56</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" ht="NA" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="8" t="n">
-        <v>0.01</v>
+        <v>38</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" ht="NA" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>98</v>
+      <c r="B61" s="8" t="n">
+        <v>21.4</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" ht="NA" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" ht="NA" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B63" s="8" t="n">
-        <v>24.4</v>
+        <v>36.3</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" ht="NA" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" ht="NA" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="8" t="n">
-        <v>102</v>
+        <v>61</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" ht="NA" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" ht="NA" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" ht="NA" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" ht="NA" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" ht="NA" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" ht="NA" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" ht="NA" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>98</v>
+        <v>68</v>
+      </c>
+      <c r="B72" s="8" t="n">
+        <v>0.51</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" ht="NA" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" ht="NA" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" s="8" t="n">
-        <v>0.29</v>
+        <v>67</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" ht="NA" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>98</v>
+      <c r="B75" s="8" t="n">
+        <v>46.3</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" ht="NA" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" ht="NA" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B77" s="8" t="n">
-        <v>15.7</v>
+        <v>67</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" ht="NA" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>98</v>
+      <c r="B78" s="8" t="n">
+        <v>0.05</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" ht="NA" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" ht="NA" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B80" s="8" t="n">
-        <v>0.11</v>
+        <v>67</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" ht="NA" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>98</v>
+      <c r="B81" s="8" t="n">
+        <v>0.06</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" ht="NA" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" ht="NA" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B83" s="8" t="n">
-        <v>0.08</v>
+        <v>67</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" ht="NA" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>98</v>
+      <c r="B84" s="8" t="n">
+        <v>0.01</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" ht="NA" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" ht="NA" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B86" s="8" t="n">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" ht="NA" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>98</v>
+      <c r="B87" s="8" t="n">
+        <v>54.8</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" ht="NA" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" ht="NA" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B89" s="8" t="n">
-        <v>22.7</v>
+        <v>67</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" ht="NA" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>98</v>
+      <c r="B90" s="8" t="n">
+        <v>2.68</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" ht="NA" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" ht="NA" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B92" s="8" t="n">
-        <v>1.22</v>
+        <v>67</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" ht="NA" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>98</v>
+      <c r="B93" s="8" t="n">
+        <v>1.86</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" ht="NA" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" ht="NA" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B95" s="8" t="n">
-        <v>0.79</v>
+        <v>67</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" ht="NA" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>98</v>
+      <c r="B96" s="8" t="n">
+        <v>21</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" ht="NA" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" ht="NA" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B98" s="8" t="n">
-        <v>39.1</v>
+        <v>67</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" ht="NA" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>98</v>
+      <c r="B99" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" ht="NA" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>99</v>
+        <v>87</v>
+      </c>
+      <c r="B100" s="8" t="n">
+        <v>0.44</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" ht="NA" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B101" s="8" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" ht="NA" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B102" s="8" t="n">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" ht="NA" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B103" s="8" t="n">
-        <v>2.37</v>
+        <v>78.4</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" ht="NA" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B104" s="8" t="n">
-        <v>0.55</v>
+        <v>51</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" ht="NA" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B105" s="8" t="n">
-        <v>169</v>
+        <v>24.7</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" ht="NA" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B106" s="8" t="n">
-        <v>97.4</v>
+        <v>0</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" ht="NA" customHeight="1">
-      <c r="A107" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B107" s="8" t="n">
-        <v>164</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>114</v>
+      <c r="A107" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B107" s="9" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="108" ht="NA" customHeight="1">
-      <c r="A108" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B108" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="109" ht="NA" customHeight="1">
-      <c r="A109" s="4" t="s">
+      <c r="A108" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B109" s="9" t="n">
-        <v>88.6</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="110" ht="NA" customHeight="1">
-      <c r="A110" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>96</v>
+      <c r="B108" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A108:D108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/output/phq9_9th_logistic.xlsx
+++ b/output/phq9_9th_logistic.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t xml:space="preserve">Characteristic
 </t>
@@ -114,10 +114,13 @@
     <t xml:space="preserve">     unknown</t>
   </si>
   <si>
-    <t xml:space="preserve">IncomeLossfromCOVID</t>
+    <t xml:space="preserve">Income Loss from COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">     Same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Less than 50% loss</t>
   </si>
   <si>
     <t xml:space="preserve">     Over 50% loss</t>
@@ -313,28 +316,37 @@
     <t xml:space="preserve">—</t>
   </si>
   <si>
-    <t xml:space="preserve">1,799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26,576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27,248,077,070,170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38,640,689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131,872,972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53,810,137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35,132,027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86,496,367</t>
+    <t xml:space="preserve">32,917,920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27,118,142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40,653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,966,925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,077,175,288,732,792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">559,418,648,256,766,400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157,547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,787</t>
   </si>
   <si>
     <t xml:space="preserve">95% CI
@@ -799,13 +811,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
@@ -813,13 +825,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
@@ -827,13 +839,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -841,13 +853,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -855,13 +867,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -869,13 +881,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" ht="NA" customHeight="1">
@@ -883,13 +895,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" ht="NA" customHeight="1">
@@ -897,27 +909,27 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" ht="NA" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="n">
-        <v>462</v>
+      <c r="B9" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" ht="NA" customHeight="1">
@@ -925,13 +937,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
@@ -939,13 +951,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
@@ -953,27 +965,27 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" ht="NA" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>99</v>
+      <c r="B13" s="8" t="n">
+        <v>42.2</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
@@ -981,13 +993,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
@@ -995,13 +1007,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" ht="NA" customHeight="1">
@@ -1009,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" ht="NA" customHeight="1">
@@ -1023,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="n">
-        <v>0.9</v>
+        <v>36.5</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" ht="NA" customHeight="1">
@@ -1037,13 +1049,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" ht="NA" customHeight="1">
@@ -1051,13 +1063,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" ht="NA" customHeight="1">
@@ -1065,13 +1077,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="n">
-        <v>24.6</v>
+        <v>13.6</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" ht="NA" customHeight="1">
@@ -1079,13 +1091,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" ht="NA" customHeight="1">
@@ -1093,13 +1105,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="n">
-        <v>19.8</v>
+        <v>1.06</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" ht="NA" customHeight="1">
@@ -1107,13 +1119,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" ht="NA" customHeight="1">
@@ -1121,13 +1133,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" ht="NA" customHeight="1">
@@ -1135,13 +1147,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" ht="NA" customHeight="1">
@@ -1149,13 +1161,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" ht="NA" customHeight="1">
@@ -1163,13 +1175,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="n">
-        <v>4.22</v>
+        <v>17</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" ht="NA" customHeight="1">
@@ -1177,13 +1189,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" ht="NA" customHeight="1">
@@ -1191,13 +1203,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" ht="NA" customHeight="1">
@@ -1205,27 +1217,27 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="n">
-        <v>0.27</v>
+        <v>0.7</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" ht="NA" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="n">
-        <v>212</v>
+      <c r="B31" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" ht="NA" customHeight="1">
@@ -1233,13 +1245,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="n">
-        <v>0.3</v>
+        <v>545</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" ht="NA" customHeight="1">
@@ -1247,13 +1259,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" ht="NA" customHeight="1">
@@ -1261,13 +1273,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" ht="NA" customHeight="1">
@@ -1275,27 +1287,27 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" ht="NA" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="n">
-        <v>0.13</v>
+      <c r="B36" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" ht="NA" customHeight="1">
@@ -1303,27 +1315,27 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" ht="NA" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>97</v>
+      <c r="B38" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" ht="NA" customHeight="1">
@@ -1337,21 +1349,21 @@
         <v>98</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" ht="NA" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="n">
-        <v>0.25</v>
+      <c r="B40" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" ht="NA" customHeight="1">
@@ -1359,18 +1371,18 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" ht="NA" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>98</v>
@@ -1379,40 +1391,40 @@
         <v>98</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" ht="NA" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="8" t="n">
-        <v>3.06</v>
+        <v>39</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" ht="NA" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>97</v>
+      <c r="B44" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" ht="NA" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>98</v>
@@ -1421,35 +1433,35 @@
         <v>98</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" ht="NA" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="8" t="n">
-        <v>2.4</v>
+        <v>39</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" ht="NA" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>97</v>
+      <c r="B47" s="8" t="n">
+        <v>0.18</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" ht="NA" customHeight="1">
@@ -1463,49 +1475,49 @@
         <v>98</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" ht="NA" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="8" t="n">
-        <v>419</v>
+      <c r="B49" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" ht="NA" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="8" t="n">
-        <v>0.24</v>
+      <c r="B50" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" ht="NA" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>97</v>
+      <c r="B51" s="8" t="n">
+        <v>0.6</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" ht="NA" customHeight="1">
@@ -1519,21 +1531,21 @@
         <v>98</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" ht="NA" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="8" t="n">
-        <v>47</v>
+      <c r="B53" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" ht="NA" customHeight="1">
@@ -1541,13 +1553,13 @@
         <v>51</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" ht="NA" customHeight="1">
@@ -1555,13 +1567,13 @@
         <v>52</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" ht="NA" customHeight="1">
@@ -1575,21 +1587,21 @@
         <v>98</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" ht="NA" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="8" t="n">
-        <v>0.08</v>
+      <c r="B57" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" ht="NA" customHeight="1">
@@ -1600,29 +1612,29 @@
         <v>0</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" ht="NA" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>97</v>
+      <c r="B59" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" ht="NA" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>98</v>
@@ -1631,63 +1643,63 @@
         <v>98</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" ht="NA" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61" s="8" t="n">
-        <v>21.4</v>
+        <v>39</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" ht="NA" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>102</v>
+      <c r="B62" s="8" t="n">
+        <v>376</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" ht="NA" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="8" t="n">
-        <v>36.3</v>
+      <c r="B63" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" ht="NA" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>97</v>
+      <c r="B64" s="8" t="n">
+        <v>81.7</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" ht="NA" customHeight="1">
@@ -1701,7 +1713,7 @@
         <v>98</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" ht="NA" customHeight="1">
@@ -1709,69 +1721,69 @@
         <v>62</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" ht="NA" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>104</v>
+      <c r="B67" s="8" t="n">
+        <v>0.08</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" ht="NA" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>105</v>
+      <c r="B68" s="8" t="n">
+        <v>4.95</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" ht="NA" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>106</v>
+      <c r="B69" s="8" t="n">
+        <v>147</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" ht="NA" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>97</v>
+      <c r="B70" s="8" t="n">
+        <v>23.8</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" ht="NA" customHeight="1">
@@ -1785,40 +1797,40 @@
         <v>98</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" ht="NA" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="8" t="n">
-        <v>0.51</v>
+      <c r="B72" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" ht="NA" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>97</v>
+      <c r="B73" s="8" t="n">
+        <v>903</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" ht="NA" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>98</v>
@@ -1827,40 +1839,40 @@
         <v>98</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" ht="NA" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B75" s="8" t="n">
-        <v>46.3</v>
+        <v>68</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" ht="NA" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>97</v>
+      <c r="B76" s="8" t="n">
+        <v>169</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" ht="NA" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>98</v>
@@ -1869,40 +1881,40 @@
         <v>98</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" ht="NA" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B78" s="8" t="n">
-        <v>0.05</v>
+        <v>68</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" ht="NA" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>97</v>
+      <c r="B79" s="8" t="n">
+        <v>269</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" ht="NA" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>98</v>
@@ -1911,40 +1923,40 @@
         <v>98</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" ht="NA" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B81" s="8" t="n">
-        <v>0.06</v>
+        <v>68</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" ht="NA" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>97</v>
+      <c r="B82" s="8" t="n">
+        <v>6.03</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" ht="NA" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>98</v>
@@ -1953,40 +1965,40 @@
         <v>98</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" ht="NA" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B84" s="8" t="n">
-        <v>0.01</v>
+        <v>68</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" ht="NA" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>97</v>
+      <c r="B85" s="8" t="n">
+        <v>0.18</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" ht="NA" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>98</v>
@@ -1995,40 +2007,40 @@
         <v>98</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" ht="NA" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B87" s="8" t="n">
-        <v>54.8</v>
+        <v>68</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" ht="NA" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>97</v>
+      <c r="B88" s="8" t="n">
+        <v>12.7</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" ht="NA" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>98</v>
@@ -2037,40 +2049,40 @@
         <v>98</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" ht="NA" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B90" s="8" t="n">
-        <v>2.68</v>
+        <v>68</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" ht="NA" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>97</v>
+      <c r="B91" s="8" t="n">
+        <v>0.01</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" ht="NA" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>98</v>
@@ -2079,21 +2091,21 @@
         <v>98</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" ht="NA" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B93" s="8" t="n">
-        <v>1.86</v>
+        <v>68</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" ht="NA" customHeight="1">
@@ -2101,18 +2113,18 @@
         <v>83</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" ht="NA" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>98</v>
@@ -2121,40 +2133,40 @@
         <v>98</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" ht="NA" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B96" s="8" t="n">
-        <v>21</v>
+        <v>68</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" ht="NA" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>97</v>
+      <c r="B97" s="8" t="n">
+        <v>0.24</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" ht="NA" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>98</v>
@@ -2163,21 +2175,21 @@
         <v>98</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" ht="NA" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B99" s="8" t="n">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" ht="NA" customHeight="1">
@@ -2185,13 +2197,13 @@
         <v>87</v>
       </c>
       <c r="B100" s="8" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" ht="NA" customHeight="1">
@@ -2199,13 +2211,13 @@
         <v>88</v>
       </c>
       <c r="B101" s="8" t="n">
-        <v>2.15</v>
+        <v>0.71</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" ht="NA" customHeight="1">
@@ -2213,13 +2225,13 @@
         <v>89</v>
       </c>
       <c r="B102" s="8" t="n">
-        <v>0.42</v>
+        <v>217</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" ht="NA" customHeight="1">
@@ -2227,13 +2239,13 @@
         <v>90</v>
       </c>
       <c r="B103" s="8" t="n">
-        <v>78.4</v>
+        <v>0.05</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" ht="NA" customHeight="1">
@@ -2241,13 +2253,13 @@
         <v>91</v>
       </c>
       <c r="B104" s="8" t="n">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" ht="NA" customHeight="1">
@@ -2255,13 +2267,13 @@
         <v>92</v>
       </c>
       <c r="B105" s="8" t="n">
-        <v>24.7</v>
+        <v>0.42</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" ht="NA" customHeight="1">
@@ -2269,46 +2281,60 @@
         <v>93</v>
       </c>
       <c r="B106" s="8" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" ht="NA" customHeight="1">
+      <c r="A107" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B107" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C106" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D106" s="8" t="s">
+      <c r="C107" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" ht="NA" customHeight="1">
+      <c r="A108" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B108" s="9" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="107" ht="NA" customHeight="1">
-      <c r="A107" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B107" s="9" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" ht="NA" customHeight="1">
-      <c r="A108" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>95</v>
+      <c r="C108" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" ht="NA" customHeight="1">
+      <c r="A109" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A109:D109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/output/phq9_9th_logistic.xlsx
+++ b/output/phq9_9th_logistic.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t xml:space="preserve">Characteristic
 </t>
@@ -42,6 +42,9 @@
     <t xml:space="preserve">     Chinese</t>
   </si>
   <si>
+    <t xml:space="preserve">     others</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marital status</t>
   </si>
   <si>
@@ -63,9 +66,6 @@
     <t xml:space="preserve">     Bangkok</t>
   </si>
   <si>
-    <t xml:space="preserve">     others</t>
-  </si>
-  <si>
     <t xml:space="preserve">Education</t>
   </si>
   <si>
@@ -138,7 +138,10 @@
     <t xml:space="preserve">     Gait aid</t>
   </si>
   <si>
-    <t xml:space="preserve">PatientHearing</t>
+    <t xml:space="preserve">Hearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Hearing aid</t>
   </si>
   <si>
     <t xml:space="preserve">     Hearing impairment</t>
@@ -316,37 +319,40 @@
     <t xml:space="preserve">—</t>
   </si>
   <si>
-    <t xml:space="preserve">32,917,920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27,118,142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40,653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18,966,925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,077,175,288,732,792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">559,418,648,256,766,400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157,547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,787</t>
+    <t xml:space="preserve">34,277,944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,330,960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,388,083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,103,897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,415,915,782,777,092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,474,029,620,826,280,704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141,485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,023</t>
   </si>
   <si>
     <t xml:space="preserve">95% CI
@@ -811,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
@@ -825,13 +831,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
@@ -839,13 +845,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -853,13 +859,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -867,13 +873,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="n">
-        <v>0.9</v>
+        <v>0.77</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -881,13 +887,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" ht="NA" customHeight="1">
@@ -895,13 +901,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" ht="NA" customHeight="1">
@@ -909,13 +915,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" ht="NA" customHeight="1">
@@ -923,13 +929,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" ht="NA" customHeight="1">
@@ -937,13 +943,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
@@ -957,21 +963,21 @@
         <v>99</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="n">
-        <v>0</v>
+      <c r="B12" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" ht="NA" customHeight="1">
@@ -979,13 +985,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="n">
-        <v>42.2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
@@ -993,27 +999,27 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>98</v>
+      <c r="B15" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" ht="NA" customHeight="1">
@@ -1027,40 +1033,40 @@
         <v>99</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" ht="NA" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="n">
-        <v>36.5</v>
+      <c r="B17" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" ht="NA" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>98</v>
+        <v>9</v>
+      </c>
+      <c r="B18" s="8" t="n">
+        <v>38.4</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" ht="NA" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>99</v>
@@ -1069,68 +1075,68 @@
         <v>99</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" ht="NA" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="n">
-        <v>13.6</v>
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" ht="NA" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8" t="n">
-        <v>0</v>
+        <v>5.07</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" ht="NA" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" ht="NA" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>98</v>
+        <v>21</v>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>0.46</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" ht="NA" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>99</v>
@@ -1139,68 +1145,68 @@
         <v>99</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" ht="NA" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8" t="n">
-        <v>0.22</v>
+        <v>23</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" ht="NA" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>101</v>
+        <v>24</v>
+      </c>
+      <c r="B26" s="8" t="n">
+        <v>0.15</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" ht="NA" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8" t="n">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" ht="NA" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>98</v>
+        <v>26</v>
+      </c>
+      <c r="B28" s="8" t="n">
+        <v>16.5</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" ht="NA" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>99</v>
@@ -1209,82 +1215,82 @@
         <v>99</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" ht="NA" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8" t="n">
-        <v>0.7</v>
+        <v>28</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" ht="NA" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>102</v>
+        <v>29</v>
+      </c>
+      <c r="B31" s="8" t="n">
+        <v>0.75</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" ht="NA" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8" t="n">
-        <v>545</v>
+        <v>30</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" ht="NA" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="8" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" ht="NA" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>98</v>
+        <v>32</v>
+      </c>
+      <c r="B34" s="8" t="n">
+        <v>0.01</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" ht="NA" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>99</v>
@@ -1293,68 +1299,68 @@
         <v>99</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" ht="NA" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" ht="NA" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8" t="n">
-        <v>1.95</v>
+        <v>35</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="NA" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="8" t="n">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" ht="NA" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>98</v>
+        <v>37</v>
+      </c>
+      <c r="B39" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" ht="NA" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>99</v>
@@ -1363,40 +1369,40 @@
         <v>99</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" ht="NA" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" ht="NA" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" ht="NA" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>99</v>
@@ -1405,707 +1411,707 @@
         <v>99</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" ht="NA" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="8" t="n">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" ht="NA" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>98</v>
+        <v>42</v>
+      </c>
+      <c r="B45" s="8" t="n">
+        <v>787</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" ht="NA" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>99</v>
+        <v>43</v>
+      </c>
+      <c r="B46" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" ht="NA" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="8" t="n">
-        <v>0.18</v>
+      <c r="B47" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" ht="NA" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" ht="NA" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>99</v>
+        <v>45</v>
+      </c>
+      <c r="B49" s="8" t="n">
+        <v>0.18</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" ht="NA" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" ht="NA" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="8" t="n">
-        <v>0.6</v>
+        <v>47</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" ht="NA" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" ht="NA" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>99</v>
+        <v>49</v>
+      </c>
+      <c r="B53" s="8" t="n">
+        <v>0.59</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" ht="NA" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" ht="NA" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" ht="NA" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" ht="NA" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" ht="NA" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="8" t="n">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" ht="NA" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="8" t="n">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" ht="NA" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>98</v>
+        <v>56</v>
+      </c>
+      <c r="B60" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" ht="NA" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>99</v>
+        <v>57</v>
+      </c>
+      <c r="B61" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" ht="NA" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="8" t="n">
-        <v>376</v>
+      <c r="B62" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" ht="NA" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" ht="NA" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="8" t="n">
-        <v>81.7</v>
+        <v>329</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" ht="NA" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" ht="NA" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>99</v>
+        <v>61</v>
+      </c>
+      <c r="B66" s="8" t="n">
+        <v>63.7</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" ht="NA" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" s="8" t="n">
-        <v>0.08</v>
+        <v>62</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" ht="NA" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B68" s="8" t="n">
-        <v>4.95</v>
+        <v>63</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" ht="NA" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69" s="8" t="n">
-        <v>147</v>
+        <v>0.14</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" ht="NA" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B70" s="8" t="n">
-        <v>23.8</v>
+        <v>3.3</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" ht="NA" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>98</v>
+        <v>66</v>
+      </c>
+      <c r="B71" s="8" t="n">
+        <v>79.8</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" ht="NA" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>99</v>
+        <v>67</v>
+      </c>
+      <c r="B72" s="8" t="n">
+        <v>18.2</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" ht="NA" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B73" s="8" t="n">
-        <v>903</v>
+        <v>68</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" ht="NA" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" ht="NA" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>99</v>
+        <v>70</v>
+      </c>
+      <c r="B75" s="8" t="n">
+        <v>839</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" ht="NA" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="8" t="n">
-        <v>169</v>
+      <c r="B76" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" ht="NA" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" ht="NA" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>99</v>
+        <v>72</v>
+      </c>
+      <c r="B78" s="8" t="n">
+        <v>190</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" ht="NA" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B79" s="8" t="n">
-        <v>269</v>
+      <c r="B79" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" ht="NA" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" ht="NA" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>99</v>
+        <v>74</v>
+      </c>
+      <c r="B81" s="8" t="n">
+        <v>237</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" ht="NA" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B82" s="8" t="n">
-        <v>6.03</v>
+      <c r="B82" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" ht="NA" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" ht="NA" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>99</v>
+        <v>76</v>
+      </c>
+      <c r="B84" s="8" t="n">
+        <v>5.23</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" ht="NA" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B85" s="8" t="n">
-        <v>0.18</v>
+      <c r="B85" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" ht="NA" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" ht="NA" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>99</v>
+        <v>78</v>
+      </c>
+      <c r="B87" s="8" t="n">
+        <v>0.17</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" ht="NA" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B88" s="8" t="n">
-        <v>12.7</v>
+      <c r="B88" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" ht="NA" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" ht="NA" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>99</v>
+        <v>80</v>
+      </c>
+      <c r="B90" s="8" t="n">
+        <v>13.4</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" ht="NA" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B91" s="8" t="n">
-        <v>0.01</v>
+      <c r="B91" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" ht="NA" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" ht="NA" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>99</v>
+        <v>82</v>
+      </c>
+      <c r="B93" s="8" t="n">
+        <v>0.01</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" ht="NA" customHeight="1">
@@ -2113,228 +2119,256 @@
         <v>83</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" ht="NA" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" ht="NA" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" ht="NA" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B97" s="8" t="n">
-        <v>0.24</v>
+      <c r="B97" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" ht="NA" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" ht="NA" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>99</v>
+        <v>86</v>
+      </c>
+      <c r="B99" s="8" t="n">
+        <v>0.23</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" ht="NA" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B100" s="8" t="n">
-        <v>0</v>
+      <c r="B100" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" ht="NA" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B101" s="8" t="n">
-        <v>0.71</v>
+        <v>69</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" ht="NA" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B102" s="8" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" ht="NA" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B103" s="8" t="n">
-        <v>0.05</v>
+        <v>0.83</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" ht="NA" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B104" s="8" t="n">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" ht="NA" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B105" s="8" t="n">
-        <v>0.42</v>
+        <v>0.05</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" ht="NA" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B106" s="8" t="n">
-        <v>0.31</v>
+        <v>186</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" ht="NA" customHeight="1">
       <c r="A107" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B107" s="8" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" ht="NA" customHeight="1">
+      <c r="A108" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B107" s="8" t="n">
+      <c r="B108" s="8" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" ht="NA" customHeight="1">
+      <c r="A109" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B109" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C109" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" ht="NA" customHeight="1">
+      <c r="A110" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B110" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D107" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="108" ht="NA" customHeight="1">
-      <c r="A108" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="109" ht="NA" customHeight="1">
-      <c r="A109" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>96</v>
+      <c r="C110" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" ht="NA" customHeight="1">
+      <c r="A111" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A111:D111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/output/phq9_9th_logistic.xlsx
+++ b/output/phq9_9th_logistic.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t xml:space="preserve">Characteristic
 </t>
@@ -42,30 +42,30 @@
     <t xml:space="preserve">     Chinese</t>
   </si>
   <si>
+    <t xml:space="preserve">Marital status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     married</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     divorced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     widow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Bangkok</t>
+  </si>
+  <si>
     <t xml:space="preserve">     others</t>
   </si>
   <si>
-    <t xml:space="preserve">Marital status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     married</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     divorced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     widow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Bangkok</t>
-  </si>
-  <si>
     <t xml:space="preserve">Education</t>
   </si>
   <si>
@@ -138,10 +138,7 @@
     <t xml:space="preserve">     Gait aid</t>
   </si>
   <si>
-    <t xml:space="preserve">Hearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Hearing aid</t>
+    <t xml:space="preserve">PatientHearing</t>
   </si>
   <si>
     <t xml:space="preserve">     Hearing impairment</t>
@@ -319,40 +316,37 @@
     <t xml:space="preserve">—</t>
   </si>
   <si>
-    <t xml:space="preserve">34,277,944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,330,960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30,388,083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30,767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18,103,897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18,415,915,782,777,092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,474,029,620,826,280,704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141,485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,023</t>
+    <t xml:space="preserve">32,917,920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27,118,142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40,653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,966,925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,077,175,288,732,792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">559,418,648,256,766,400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157,547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,787</t>
   </si>
   <si>
     <t xml:space="preserve">95% CI
@@ -817,13 +811,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
@@ -831,13 +825,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
@@ -845,13 +839,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -859,13 +853,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -873,13 +867,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="n">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -887,13 +881,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" ht="NA" customHeight="1">
@@ -901,13 +895,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" ht="NA" customHeight="1">
@@ -915,13 +909,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" ht="NA" customHeight="1">
@@ -929,13 +923,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" ht="NA" customHeight="1">
@@ -943,13 +937,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
@@ -963,21 +957,21 @@
         <v>99</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>100</v>
+      <c r="B12" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" ht="NA" customHeight="1">
@@ -985,13 +979,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="n">
-        <v>0</v>
+        <v>42.2</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
@@ -999,27 +993,27 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="n">
-        <v>0</v>
+      <c r="B15" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" ht="NA" customHeight="1">
@@ -1033,40 +1027,40 @@
         <v>99</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" ht="NA" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>100</v>
+      <c r="B17" s="8" t="n">
+        <v>36.5</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" ht="NA" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="8" t="n">
-        <v>38.4</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" ht="NA" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>99</v>
@@ -1075,68 +1069,68 @@
         <v>99</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" ht="NA" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>100</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="n">
+        <v>13.6</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" ht="NA" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="8" t="n">
-        <v>5.07</v>
+        <v>0</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" ht="NA" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="8" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" ht="NA" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="8" t="n">
-        <v>0.46</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" ht="NA" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>99</v>
@@ -1145,68 +1139,68 @@
         <v>99</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" ht="NA" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>100</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="n">
+        <v>0.22</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" ht="NA" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="8" t="n">
-        <v>0.15</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" ht="NA" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>103</v>
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="n">
+        <v>17</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" ht="NA" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="8" t="n">
-        <v>16.5</v>
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" ht="NA" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>99</v>
@@ -1215,82 +1209,82 @@
         <v>99</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" ht="NA" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>100</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="n">
+        <v>0.7</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" ht="NA" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="8" t="n">
-        <v>0.75</v>
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" ht="NA" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>104</v>
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="n">
+        <v>545</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" ht="NA" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="8" t="n">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" ht="NA" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="8" t="n">
-        <v>0.01</v>
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" ht="NA" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>99</v>
@@ -1299,68 +1293,68 @@
         <v>99</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" ht="NA" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" ht="NA" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>105</v>
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="n">
+        <v>1.95</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" ht="NA" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="8" t="n">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" ht="NA" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="8" t="n">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" ht="NA" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>99</v>
@@ -1369,40 +1363,40 @@
         <v>99</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" ht="NA" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" ht="NA" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" ht="NA" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>99</v>
@@ -1411,707 +1405,707 @@
         <v>99</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" ht="NA" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>100</v>
+        <v>42</v>
+      </c>
+      <c r="B44" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" ht="NA" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="8" t="n">
-        <v>787</v>
+        <v>43</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" ht="NA" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="8" t="n">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" ht="NA" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>99</v>
+      <c r="B47" s="8" t="n">
+        <v>0.18</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" ht="NA" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" ht="NA" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="8" t="n">
-        <v>0.18</v>
+        <v>46</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" ht="NA" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" ht="NA" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>100</v>
+        <v>48</v>
+      </c>
+      <c r="B51" s="8" t="n">
+        <v>0.6</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" ht="NA" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" ht="NA" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="8" t="n">
-        <v>0.59</v>
+        <v>50</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" ht="NA" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" ht="NA" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" ht="NA" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" ht="NA" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" ht="NA" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>99</v>
+        <v>55</v>
+      </c>
+      <c r="B58" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" ht="NA" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>100</v>
+        <v>56</v>
+      </c>
+      <c r="B59" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" ht="NA" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="8" t="n">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" ht="NA" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61" s="8" t="n">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" ht="NA" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>99</v>
+      <c r="B62" s="8" t="n">
+        <v>376</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" ht="NA" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" ht="NA" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B64" s="8" t="n">
-        <v>329</v>
+        <v>81.7</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" ht="NA" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" ht="NA" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="8" t="n">
-        <v>63.7</v>
+        <v>62</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" ht="NA" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>99</v>
+        <v>63</v>
+      </c>
+      <c r="B67" s="8" t="n">
+        <v>0.08</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" ht="NA" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>100</v>
+        <v>64</v>
+      </c>
+      <c r="B68" s="8" t="n">
+        <v>4.95</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" ht="NA" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B69" s="8" t="n">
-        <v>0.14</v>
+        <v>147</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" ht="NA" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B70" s="8" t="n">
-        <v>3.3</v>
+        <v>23.8</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" ht="NA" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" s="8" t="n">
-        <v>79.8</v>
+        <v>67</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" ht="NA" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" s="8" t="n">
-        <v>18.2</v>
+        <v>68</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" ht="NA" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>99</v>
+        <v>69</v>
+      </c>
+      <c r="B73" s="8" t="n">
+        <v>903</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" ht="NA" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" ht="NA" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B75" s="8" t="n">
-        <v>839</v>
+        <v>68</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" ht="NA" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>99</v>
+      <c r="B76" s="8" t="n">
+        <v>169</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" ht="NA" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" ht="NA" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B78" s="8" t="n">
-        <v>190</v>
+        <v>68</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" ht="NA" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>99</v>
+      <c r="B79" s="8" t="n">
+        <v>269</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" ht="NA" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" ht="NA" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B81" s="8" t="n">
-        <v>237</v>
+        <v>68</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" ht="NA" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>99</v>
+      <c r="B82" s="8" t="n">
+        <v>6.03</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" ht="NA" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" ht="NA" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B84" s="8" t="n">
-        <v>5.23</v>
+        <v>68</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" ht="NA" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>99</v>
+      <c r="B85" s="8" t="n">
+        <v>0.18</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" ht="NA" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" ht="NA" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B87" s="8" t="n">
-        <v>0.17</v>
+        <v>68</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" ht="NA" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>99</v>
+      <c r="B88" s="8" t="n">
+        <v>12.7</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" ht="NA" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" ht="NA" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B90" s="8" t="n">
-        <v>13.4</v>
+        <v>68</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" ht="NA" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>99</v>
+      <c r="B91" s="8" t="n">
+        <v>0.01</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" ht="NA" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" ht="NA" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B93" s="8" t="n">
-        <v>0.01</v>
+        <v>68</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" ht="NA" customHeight="1">
@@ -2119,256 +2113,228 @@
         <v>83</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" ht="NA" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" ht="NA" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" ht="NA" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>99</v>
+      <c r="B97" s="8" t="n">
+        <v>0.24</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" ht="NA" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" ht="NA" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B99" s="8" t="n">
-        <v>0.23</v>
+        <v>68</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" ht="NA" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>99</v>
+      <c r="B100" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" ht="NA" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>100</v>
+        <v>88</v>
+      </c>
+      <c r="B101" s="8" t="n">
+        <v>0.71</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" ht="NA" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B102" s="8" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" ht="NA" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B103" s="8" t="n">
-        <v>0.83</v>
+        <v>0.05</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" ht="NA" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B104" s="8" t="n">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" ht="NA" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B105" s="8" t="n">
-        <v>0.05</v>
+        <v>0.42</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" ht="NA" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B106" s="8" t="n">
-        <v>186</v>
+        <v>0.31</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" ht="NA" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B107" s="8" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" ht="NA" customHeight="1">
-      <c r="A108" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B108" s="8" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>116</v>
+      <c r="A108" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="109" ht="NA" customHeight="1">
-      <c r="A109" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B109" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="110" ht="NA" customHeight="1">
-      <c r="A110" s="4" t="s">
+      <c r="A109" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B110" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="111" ht="NA" customHeight="1">
-      <c r="A111" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>97</v>
+      <c r="B109" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A109:D109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
